--- a/cake_app/templates/excel/cards_template.xlsx
+++ b/cake_app/templates/excel/cards_template.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="8660"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId4"/>
-    <sheet name="LIST" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="VERSION" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="LIST" sheetId="2" state="veryHidden" r:id="rId5"/>
+    <sheet name="VERSION" sheetId="3" state="veryHidden" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>

--- a/cake_app/templates/excel/cards_template.xlsx
+++ b/cake_app/templates/excel/cards_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="8660"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="D7EF"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>04:Ex</t>
   </si>
   <si>
-    <t>0c3a4ef8a0555dccd9f6fb30bfe867a7f7c63f1cf3430894d17710ca486c42a5c14ec348f14253fbe9146e597b2e0bc6f15c4af3e5bc1a55c17693609b2fe0fd</t>
+    <t>e8ed847a2b4dee52f1049c2b5e6df0d4ae2b8849f2fb927a2dc6e59cc93fc8c8c73c90bbd7781859e9555ad1a57e31e4b6140527a39033ee6343bf8c98f0e02d</t>
   </si>
 </sst>
 </file>

--- a/cake_app/templates/excel/cards_template.xlsx
+++ b/cake_app/templates/excel/cards_template.xlsx
@@ -494,8 +494,8 @@
     <col min="6" max="6" width="10" customWidth="true" style="0"/>
     <col min="7" max="7" width="12" customWidth="true" style="0"/>
     <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19.38" customWidth="true" style="0"/>
+    <col min="10" max="10" width="19.38" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/cake_app/templates/excel/cards_template.xlsx
+++ b/cake_app/templates/excel/cards_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="D7EF"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="true" workbookPassword="BC3D"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -104,7 +104,10 @@
     <t>04:Ex</t>
   </si>
   <si>
-    <t>e8ed847a2b4dee52f1049c2b5e6df0d4ae2b8849f2fb927a2dc6e59cc93fc8c8c73c90bbd7781859e9555ad1a57e31e4b6140527a39033ee6343bf8c98f0e02d</t>
+    <t>04:SHS限定</t>
+  </si>
+  <si>
+    <t>8d08ffc9661ce599ef98ea2ed3418bdec76b4b58a6c5e409e3493aaf175fc6b007f3d7edf25840d12ff516c3ccad367709966222707df70eb0caece56cbe999c</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -547,7 +550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -636,7 +639,9 @@
         <v>27</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -655,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -669,7 +674,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
